--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -33,114 +33,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>C-0000-S</t>
+    <t>C-9991-6XL</t>
   </si>
   <si>
     <t>Huang Xiaojian</t>
   </si>
   <si>
-    <t>C0000S</t>
-  </si>
-  <si>
-    <t>C-0000-M</t>
-  </si>
-  <si>
-    <t>C0000M</t>
-  </si>
-  <si>
-    <t>C-0000-L</t>
-  </si>
-  <si>
-    <t>C0000L</t>
-  </si>
-  <si>
-    <t>C-0000-XL</t>
-  </si>
-  <si>
-    <t>C0000XL</t>
-  </si>
-  <si>
-    <t>C-0000-2XL</t>
-  </si>
-  <si>
-    <t>C00002XL</t>
-  </si>
-  <si>
-    <t>C-0000-3XL</t>
-  </si>
-  <si>
-    <t>C00003XL</t>
-  </si>
-  <si>
-    <t>C-0000-4XL</t>
-  </si>
-  <si>
-    <t>C00004XL</t>
-  </si>
-  <si>
-    <t>C-0000-5XL</t>
-  </si>
-  <si>
-    <t>C00005XL</t>
-  </si>
-  <si>
-    <t>C-0000-6XL</t>
-  </si>
-  <si>
-    <t>C00006XL</t>
-  </si>
-  <si>
-    <t>C-9991-S</t>
-  </si>
-  <si>
-    <t>C9991S</t>
-  </si>
-  <si>
-    <t>C-9991-M</t>
-  </si>
-  <si>
-    <t>C9991M</t>
-  </si>
-  <si>
-    <t>C-9991-L</t>
-  </si>
-  <si>
-    <t>C9991L</t>
-  </si>
-  <si>
-    <t>C-9991-XL</t>
-  </si>
-  <si>
-    <t>C9991XL</t>
-  </si>
-  <si>
-    <t>C-9991-2XL</t>
-  </si>
-  <si>
-    <t>C99912XL</t>
-  </si>
-  <si>
-    <t>C-9991-3XL</t>
-  </si>
-  <si>
-    <t>C99913XL</t>
-  </si>
-  <si>
-    <t>C-9991-4XL</t>
-  </si>
-  <si>
-    <t>C99914XL</t>
-  </si>
-  <si>
-    <t>C-9991-5XL</t>
-  </si>
-  <si>
-    <t>C99915XL</t>
-  </si>
-  <si>
-    <t>C-9991-6XL</t>
-  </si>
-  <si>
     <t>C99916XL</t>
   </si>
   <si>
@@ -148,18 +46,6 @@
   </si>
   <si>
     <t>C8881S</t>
-  </si>
-  <si>
-    <t>C-8881-2XL</t>
-  </si>
-  <si>
-    <t>C88812XL</t>
-  </si>
-  <si>
-    <t>C-8881-4XL</t>
-  </si>
-  <si>
-    <t>C88814XL</t>
   </si>
   <si>
     <t>C-8881-5XL</t>
@@ -870,7 +756,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -967,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1006,16 +892,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,16 +909,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,16 +926,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,16 +943,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1074,16 +960,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,16 +977,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,16 +994,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1125,16 +1011,14 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B15"/>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1142,16 +1026,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1159,16 +1043,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1176,16 +1060,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1193,16 +1077,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1210,16 +1094,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1227,16 +1111,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1244,16 +1128,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1261,16 +1145,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1278,16 +1162,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1295,16 +1179,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1312,16 +1196,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1329,16 +1213,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1346,16 +1230,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1363,16 +1247,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1380,16 +1264,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1397,16 +1281,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1414,16 +1298,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1431,16 +1315,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1448,16 +1332,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1465,14 +1349,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35"/>
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1480,16 +1366,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1497,16 +1383,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1514,16 +1400,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1531,16 +1417,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1548,16 +1434,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1565,16 +1451,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1582,16 +1468,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1599,16 +1485,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1616,16 +1502,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1633,16 +1519,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1650,16 +1536,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1667,16 +1553,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1684,16 +1570,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1701,16 +1587,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1718,16 +1604,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1735,16 +1621,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1752,16 +1638,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1769,16 +1655,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1786,16 +1672,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1803,16 +1689,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1820,16 +1706,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1837,16 +1723,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1854,16 +1740,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1871,16 +1757,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1888,16 +1774,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1905,16 +1791,14 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B61"/>
       <c r="C61" t="s">
         <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1925,10 +1809,10 @@
         <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
         <v>124</v>
@@ -1939,16 +1823,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1956,16 +1840,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1973,16 +1857,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1990,16 +1874,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2007,16 +1891,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2024,16 +1908,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2041,16 +1925,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2058,16 +1942,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2075,356 +1959,18 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>146</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" t="s">
-        <v>146</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>149</v>
-      </c>
-      <c r="D74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" t="s">
-        <v>159</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
-      </c>
-      <c r="D80" t="s">
-        <v>160</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" t="s">
-        <v>161</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" t="s">
-        <v>162</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" t="s">
-        <v>163</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>164</v>
-      </c>
-      <c r="B84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" t="s">
-        <v>164</v>
-      </c>
-      <c r="D84" t="s">
-        <v>164</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" t="s">
-        <v>165</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" t="s">
-        <v>156</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" t="s">
-        <v>166</v>
-      </c>
-      <c r="D87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>167</v>
-      </c>
-      <c r="B88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" t="s">
-        <v>167</v>
-      </c>
-      <c r="D88" t="s">
-        <v>167</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>160</v>
-      </c>
-      <c r="B89" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" t="s">
-        <v>160</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" t="s">
-        <v>157</v>
-      </c>
-      <c r="C90" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" t="s">
-        <v>159</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" t="s">
-        <v>156</v>
-      </c>
-      <c r="E91">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Name</t>
   </si>
@@ -33,12 +33,114 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>C-0000-S</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>C0000S</t>
+  </si>
+  <si>
+    <t>C-0000-M</t>
+  </si>
+  <si>
+    <t>C0000M</t>
+  </si>
+  <si>
+    <t>C-0000-L</t>
+  </si>
+  <si>
+    <t>C0000L</t>
+  </si>
+  <si>
+    <t>C-0000-XL</t>
+  </si>
+  <si>
+    <t>C0000XL</t>
+  </si>
+  <si>
+    <t>C-0000-2XL</t>
+  </si>
+  <si>
+    <t>C00002XL</t>
+  </si>
+  <si>
+    <t>C-0000-3XL</t>
+  </si>
+  <si>
+    <t>C00003XL</t>
+  </si>
+  <si>
+    <t>C-0000-4XL</t>
+  </si>
+  <si>
+    <t>C00004XL</t>
+  </si>
+  <si>
+    <t>C-0000-5XL</t>
+  </si>
+  <si>
+    <t>C00005XL</t>
+  </si>
+  <si>
+    <t>C-0000-6XL</t>
+  </si>
+  <si>
+    <t>C00006XL</t>
+  </si>
+  <si>
+    <t>C-9991-S</t>
+  </si>
+  <si>
+    <t>C9991S</t>
+  </si>
+  <si>
+    <t>C-9991-M</t>
+  </si>
+  <si>
+    <t>C9991M</t>
+  </si>
+  <si>
+    <t>C-9991-L</t>
+  </si>
+  <si>
+    <t>C9991L</t>
+  </si>
+  <si>
+    <t>C-9991-XL</t>
+  </si>
+  <si>
+    <t>C9991XL</t>
+  </si>
+  <si>
+    <t>C-9991-2XL</t>
+  </si>
+  <si>
+    <t>C99912XL</t>
+  </si>
+  <si>
+    <t>C-9991-3XL</t>
+  </si>
+  <si>
+    <t>C99913XL</t>
+  </si>
+  <si>
+    <t>C-9991-4XL</t>
+  </si>
+  <si>
+    <t>C99914XL</t>
+  </si>
+  <si>
+    <t>C-9991-5XL</t>
+  </si>
+  <si>
+    <t>C99915XL</t>
+  </si>
+  <si>
     <t>C-9991-6XL</t>
   </si>
   <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
     <t>C99916XL</t>
   </si>
   <si>
@@ -48,6 +150,18 @@
     <t>C8881S</t>
   </si>
   <si>
+    <t>C-8881-2XL</t>
+  </si>
+  <si>
+    <t>C88812XL</t>
+  </si>
+  <si>
+    <t>C-8881-4XL</t>
+  </si>
+  <si>
+    <t>C88814XL</t>
+  </si>
+  <si>
     <t>C-8881-5XL</t>
   </si>
   <si>
@@ -114,298 +228,298 @@
     <t>C88853XL</t>
   </si>
   <si>
+    <t>C-7771-M</t>
+  </si>
+  <si>
+    <t>C7771M</t>
+  </si>
+  <si>
+    <t>C-7771-L</t>
+  </si>
+  <si>
+    <t>C7771L</t>
+  </si>
+  <si>
+    <t>C-7771-XL</t>
+  </si>
+  <si>
+    <t>C7771XL</t>
+  </si>
+  <si>
+    <t>C-7771-2XL</t>
+  </si>
+  <si>
+    <t>C77712XL</t>
+  </si>
+  <si>
+    <t>C-7771-3XL</t>
+  </si>
+  <si>
+    <t>C77713XL</t>
+  </si>
+  <si>
+    <t>C-7772-S</t>
+  </si>
+  <si>
+    <t>C7772S</t>
+  </si>
+  <si>
+    <t>C-7772-M</t>
+  </si>
+  <si>
+    <t>C7772M</t>
+  </si>
+  <si>
+    <t>C-7772-L</t>
+  </si>
+  <si>
+    <t>C7772L</t>
+  </si>
+  <si>
+    <t>C-7772-XL</t>
+  </si>
+  <si>
+    <t>C7772XL</t>
+  </si>
+  <si>
+    <t>C-7773-M</t>
+  </si>
+  <si>
+    <t>C7773M</t>
+  </si>
+  <si>
+    <t>C-7773-L</t>
+  </si>
+  <si>
+    <t>C7773L</t>
+  </si>
+  <si>
+    <t>C-7773-XL</t>
+  </si>
+  <si>
+    <t>C7773XL</t>
+  </si>
+  <si>
+    <t>C-7774-S</t>
+  </si>
+  <si>
+    <t>C7774S</t>
+  </si>
+  <si>
+    <t>C-7774-M</t>
+  </si>
+  <si>
+    <t>C7774M</t>
+  </si>
+  <si>
+    <t>C-7774-L</t>
+  </si>
+  <si>
+    <t>C7774L</t>
+  </si>
+  <si>
+    <t>C-7774-XL</t>
+  </si>
+  <si>
+    <t>C7774XL</t>
+  </si>
+  <si>
+    <t>C-6666-5XL</t>
+  </si>
+  <si>
+    <t>C66665XL</t>
+  </si>
+  <si>
+    <t>C-6666-XL</t>
+  </si>
+  <si>
+    <t>C6666XL</t>
+  </si>
+  <si>
+    <t>C-6667-5XL</t>
+  </si>
+  <si>
+    <t>C66675XL</t>
+  </si>
+  <si>
+    <t>C-6667-4XL</t>
+  </si>
+  <si>
+    <t>C66674XL</t>
+  </si>
+  <si>
+    <t>C-6667-6XL</t>
+  </si>
+  <si>
+    <t>C66676XL</t>
+  </si>
+  <si>
+    <t>C-9843-S</t>
+  </si>
+  <si>
+    <t>C9843S</t>
+  </si>
+  <si>
+    <t>C-9843-M</t>
+  </si>
+  <si>
+    <t>C9843M</t>
+  </si>
+  <si>
+    <t>C-9843-L</t>
+  </si>
+  <si>
+    <t>C9843L</t>
+  </si>
+  <si>
+    <t>C-9843-XL</t>
+  </si>
+  <si>
+    <t>C9843XL</t>
+  </si>
+  <si>
+    <t>C-9843-2XL</t>
+  </si>
+  <si>
+    <t>C98432XL</t>
+  </si>
+  <si>
+    <t>C-1025-S</t>
+  </si>
+  <si>
+    <t>C1025S</t>
+  </si>
+  <si>
+    <t>C-1025-XL</t>
+  </si>
+  <si>
+    <t>C1025XL</t>
+  </si>
+  <si>
+    <t>C-1025-2XL</t>
+  </si>
+  <si>
+    <t>C10252XL</t>
+  </si>
+  <si>
+    <t>C-1025-3XL</t>
+  </si>
+  <si>
+    <t>C10253XL</t>
+  </si>
+  <si>
+    <t>C-1025-4XL</t>
+  </si>
+  <si>
+    <t>C10254XL</t>
+  </si>
+  <si>
+    <t>C-1025-5XL</t>
+  </si>
+  <si>
+    <t>C10255XL</t>
+  </si>
+  <si>
+    <t>C-1025-6XL</t>
+  </si>
+  <si>
+    <t>C10256XL</t>
+  </si>
+  <si>
+    <t>C-5551-S</t>
+  </si>
+  <si>
+    <t>C5551S</t>
+  </si>
+  <si>
+    <t>C-5552-S</t>
+  </si>
+  <si>
+    <t>C5552S</t>
+  </si>
+  <si>
+    <t>C-5552-M</t>
+  </si>
+  <si>
+    <t>C5552M</t>
+  </si>
+  <si>
+    <t>C-5551-L</t>
+  </si>
+  <si>
+    <t>C5551L</t>
+  </si>
+  <si>
+    <t>C-5552-L</t>
+  </si>
+  <si>
+    <t>C5552L</t>
+  </si>
+  <si>
+    <t>C-5552-XL</t>
+  </si>
+  <si>
+    <t>C5552XL</t>
+  </si>
+  <si>
+    <t>C-5551-2XL</t>
+  </si>
+  <si>
+    <t>C55512XL</t>
+  </si>
+  <si>
+    <t>C-5552-2XL</t>
+  </si>
+  <si>
+    <t>C55522XL</t>
+  </si>
+  <si>
+    <t>C-5552-3XL</t>
+  </si>
+  <si>
+    <t>C55523XL</t>
+  </si>
+  <si>
+    <t>WUCFJ0088809</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>WU-CFJ008-8809</t>
+  </si>
+  <si>
+    <t>txdqizhihang0001</t>
+  </si>
+  <si>
+    <t>TXD002-W-0</t>
+  </si>
+  <si>
+    <t>TXD002-W-5</t>
+  </si>
+  <si>
+    <t>CFJ-1-BLACK</t>
+  </si>
+  <si>
+    <t>CFJ-1-Black</t>
+  </si>
+  <si>
+    <t>CFJ-1</t>
+  </si>
+  <si>
+    <t>CFJ-55-Black</t>
+  </si>
+  <si>
+    <t>TXD002-W-2</t>
+  </si>
+  <si>
     <t>C-7771-S</t>
   </si>
   <si>
     <t>C7771S</t>
   </si>
   <si>
-    <t>C-7771-M</t>
-  </si>
-  <si>
-    <t>C7771M</t>
-  </si>
-  <si>
-    <t>C-7771-L</t>
-  </si>
-  <si>
-    <t>C7771L</t>
-  </si>
-  <si>
-    <t>C-7771-XL</t>
-  </si>
-  <si>
-    <t>C7771XL</t>
-  </si>
-  <si>
-    <t>C-7771-2XL</t>
-  </si>
-  <si>
-    <t>C77712XL</t>
-  </si>
-  <si>
-    <t>C-7771-3XL</t>
-  </si>
-  <si>
-    <t>C77713XL</t>
-  </si>
-  <si>
-    <t>C-7772-S</t>
-  </si>
-  <si>
-    <t>C7772S</t>
-  </si>
-  <si>
-    <t>C-7772-M</t>
-  </si>
-  <si>
-    <t>C7772M</t>
-  </si>
-  <si>
-    <t>C-7772-L</t>
-  </si>
-  <si>
-    <t>C7772L</t>
-  </si>
-  <si>
-    <t>C-7772-XL</t>
-  </si>
-  <si>
-    <t>C7772XL</t>
-  </si>
-  <si>
-    <t>C-7773-M</t>
-  </si>
-  <si>
-    <t>C7773M</t>
-  </si>
-  <si>
-    <t>C-7773-L</t>
-  </si>
-  <si>
-    <t>C7773L</t>
-  </si>
-  <si>
-    <t>C-7773-XL</t>
-  </si>
-  <si>
-    <t>C7773XL</t>
-  </si>
-  <si>
-    <t>C-7774-S</t>
-  </si>
-  <si>
-    <t>C7774S</t>
-  </si>
-  <si>
-    <t>C-7774-M</t>
-  </si>
-  <si>
-    <t>C7774M</t>
-  </si>
-  <si>
-    <t>C-7774-L</t>
-  </si>
-  <si>
-    <t>C7774L</t>
-  </si>
-  <si>
-    <t>C-7774-XL</t>
-  </si>
-  <si>
-    <t>C7774XL</t>
-  </si>
-  <si>
-    <t>C-6666-5XL</t>
-  </si>
-  <si>
-    <t>C66665XL</t>
-  </si>
-  <si>
-    <t>C-6666-XL</t>
-  </si>
-  <si>
-    <t>C6666XL</t>
-  </si>
-  <si>
-    <t>C-6667-5XL</t>
-  </si>
-  <si>
-    <t>C66675XL</t>
-  </si>
-  <si>
-    <t>C-6667-4XL</t>
-  </si>
-  <si>
-    <t>C66674XL</t>
-  </si>
-  <si>
-    <t>C-6667-6XL</t>
-  </si>
-  <si>
-    <t>C66676XL</t>
-  </si>
-  <si>
-    <t>C-9843-S</t>
-  </si>
-  <si>
-    <t>C9843S</t>
-  </si>
-  <si>
-    <t>C-9843-M</t>
-  </si>
-  <si>
-    <t>C9843M</t>
-  </si>
-  <si>
-    <t>C-9843-L</t>
-  </si>
-  <si>
-    <t>C9843L</t>
-  </si>
-  <si>
-    <t>C-9843-XL</t>
-  </si>
-  <si>
-    <t>C9843XL</t>
-  </si>
-  <si>
-    <t>C-9843-2XL</t>
-  </si>
-  <si>
-    <t>C98432XL</t>
-  </si>
-  <si>
-    <t>C-1025-S</t>
-  </si>
-  <si>
-    <t>C1025S</t>
-  </si>
-  <si>
-    <t>C-1025-XL</t>
-  </si>
-  <si>
-    <t>C1025XL</t>
-  </si>
-  <si>
-    <t>C-1025-2XL</t>
-  </si>
-  <si>
-    <t>C10252XL</t>
-  </si>
-  <si>
-    <t>C-1025-3XL</t>
-  </si>
-  <si>
-    <t>C10253XL</t>
-  </si>
-  <si>
-    <t>C-1025-4XL</t>
-  </si>
-  <si>
-    <t>C10254XL</t>
-  </si>
-  <si>
-    <t>C-1025-5XL</t>
-  </si>
-  <si>
-    <t>C10255XL</t>
-  </si>
-  <si>
-    <t>C-1025-6XL</t>
-  </si>
-  <si>
-    <t>C10256XL</t>
-  </si>
-  <si>
-    <t>C-5551-S</t>
-  </si>
-  <si>
-    <t>C5551S</t>
-  </si>
-  <si>
-    <t>C-5552-S</t>
-  </si>
-  <si>
-    <t>C5552S</t>
-  </si>
-  <si>
-    <t>C-5552-M</t>
-  </si>
-  <si>
-    <t>C5552M</t>
-  </si>
-  <si>
-    <t>C-5551-L</t>
-  </si>
-  <si>
-    <t>C5551L</t>
-  </si>
-  <si>
-    <t>C-5552-L</t>
-  </si>
-  <si>
-    <t>C5552L</t>
-  </si>
-  <si>
-    <t>C-5552-XL</t>
-  </si>
-  <si>
-    <t>C5552XL</t>
-  </si>
-  <si>
-    <t>C-5551-2XL</t>
-  </si>
-  <si>
-    <t>C55512XL</t>
-  </si>
-  <si>
-    <t>C-5552-2XL</t>
-  </si>
-  <si>
-    <t>C55522XL</t>
-  </si>
-  <si>
-    <t>C-5552-3XL</t>
-  </si>
-  <si>
-    <t>C55523XL</t>
-  </si>
-  <si>
-    <t>WUCFJ0088809</t>
-  </si>
-  <si>
-    <t>Arron Dong</t>
-  </si>
-  <si>
-    <t>WU-CFJ008-8809</t>
-  </si>
-  <si>
-    <t>txdqizhihang0001</t>
-  </si>
-  <si>
-    <t>TXD002-W-0</t>
-  </si>
-  <si>
     <t>TXD002-W1-Grey</t>
-  </si>
-  <si>
-    <t>TXD002-W-5</t>
-  </si>
-  <si>
-    <t>CFJ-1-BLACK</t>
-  </si>
-  <si>
-    <t>CFJ-1-Black</t>
-  </si>
-  <si>
-    <t>CFJ-1</t>
-  </si>
-  <si>
-    <t>CFJ-55-Black</t>
-  </si>
-  <si>
-    <t>TXD002-W-2</t>
   </si>
 </sst>
 </file>
@@ -756,7 +870,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -819,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -892,16 +1006,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,16 +1023,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,16 +1040,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -943,16 +1057,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -960,16 +1074,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -977,16 +1091,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -994,16 +1108,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1011,14 +1125,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1026,16 +1142,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1043,16 +1159,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1060,16 +1176,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1077,16 +1193,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1094,16 +1210,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,16 +1227,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1128,16 +1244,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1145,16 +1261,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1162,16 +1278,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1179,16 +1295,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1196,16 +1312,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1213,16 +1329,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1230,16 +1346,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1247,16 +1363,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1264,16 +1380,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1281,16 +1397,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1298,16 +1414,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1315,16 +1431,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1332,16 +1448,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1349,16 +1465,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1366,16 +1482,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1383,16 +1499,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1400,16 +1516,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1417,16 +1533,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1434,16 +1550,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1451,16 +1567,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1468,16 +1584,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1485,16 +1601,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1502,16 +1618,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1519,16 +1635,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1536,16 +1652,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1553,16 +1669,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1570,16 +1686,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1587,16 +1703,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1604,16 +1720,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1621,16 +1737,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1638,16 +1754,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1655,16 +1771,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1672,16 +1788,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1689,16 +1805,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1706,16 +1822,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1723,16 +1839,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1740,16 +1856,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1757,16 +1873,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
         <v>119</v>
       </c>
-      <c r="C59" t="s">
-        <v>121</v>
-      </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1774,16 +1890,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1791,14 +1907,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
       <c r="C61" t="s">
         <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1809,10 +1927,10 @@
         <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
         <v>124</v>
@@ -1823,16 +1941,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1840,16 +1958,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1857,16 +1975,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1874,16 +1992,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1891,16 +2009,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1908,16 +2026,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1925,16 +2043,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1942,16 +2060,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1959,18 +2077,354 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D71" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+      <c r="D74" t="s">
+        <v>148</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" t="s">
+        <v>157</v>
+      </c>
+      <c r="D78" t="s">
+        <v>157</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>161</v>
+      </c>
+      <c r="D82" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" t="s">
+        <v>164</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" t="s">
+        <v>158</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90"/>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91"/>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" t="s">
+        <v>167</v>
+      </c>
+      <c r="E91">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -228,6 +228,12 @@
     <t>C88853XL</t>
   </si>
   <si>
+    <t>C-7771-S</t>
+  </si>
+  <si>
+    <t>C7771S</t>
+  </si>
+  <si>
     <t>C-7771-M</t>
   </si>
   <si>
@@ -495,6 +501,9 @@
     <t>TXD002-W-0</t>
   </si>
   <si>
+    <t>TXD002-W1-Grey</t>
+  </si>
+  <si>
     <t>TXD002-W-5</t>
   </si>
   <si>
@@ -511,15 +520,6 @@
   </si>
   <si>
     <t>TXD002-W-2</t>
-  </si>
-  <si>
-    <t>C-7771-S</t>
-  </si>
-  <si>
-    <t>C7771S</t>
-  </si>
-  <si>
-    <t>TXD002-W1-Grey</t>
   </si>
 </sst>
 </file>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1467,9 +1467,7 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
+      <c r="B35"/>
       <c r="C35" t="s">
         <v>71</v>
       </c>
@@ -2182,13 +2180,13 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
         <v>155</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>154</v>
-      </c>
-      <c r="D77" t="s">
-        <v>156</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2196,16 +2194,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="s">
-        <v>155</v>
-      </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2213,16 +2211,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2230,16 +2228,16 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -2247,16 +2245,14 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>160</v>
-      </c>
-      <c r="B81" t="s">
-        <v>155</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B81"/>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -2264,16 +2260,16 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2281,16 +2277,16 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2298,16 +2294,16 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D84" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2315,16 +2311,16 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2332,16 +2328,16 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2349,16 +2345,16 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2366,16 +2362,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
         <v>157</v>
       </c>
-      <c r="B88" t="s">
-        <v>155</v>
-      </c>
       <c r="C88" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2383,16 +2379,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C89" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2400,14 +2396,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90"/>
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2415,14 +2413,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91"/>
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E91">
         <v>0</v>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -967,7 +967,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -933,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -36,7 +36,7 @@
     <t>NRC-91</t>
   </si>
   <si>
-    <t>Arron Dong</t>
+    <t>Huang Xiaojian</t>
   </si>
   <si>
     <t>X001D08AXL</t>
@@ -549,7 +549,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -33,13 +33,229 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>NRC-91</t>
+    <t>Lily Bay Lake Adela Replacement Outdoor Loveseat Cushion Spice</t>
   </si>
   <si>
     <t>Arron Dong</t>
   </si>
   <si>
-    <t>X001D08AXL</t>
+    <t>Lily Bay Lake Adela Replacement Outdoor Chaise Lounge Cusion Spice</t>
+  </si>
+  <si>
+    <t>10 ft x 10 ft Solar LED Lighted Gazebo</t>
+  </si>
+  <si>
+    <t>Aria 3pc Balcony Set</t>
+  </si>
+  <si>
+    <t>Aria 7pc Dining Set</t>
+  </si>
+  <si>
+    <t>Aria Deep Seating Chair</t>
+  </si>
+  <si>
+    <t>Vichy Springs High Dining Chair</t>
+  </si>
+  <si>
+    <t>Vichy Spring Bistro Table</t>
+  </si>
+  <si>
+    <t>Aria 5pc High Dining Set</t>
+  </si>
+  <si>
+    <t>Vichy Springs 7 -Piece Patio High Dining Set</t>
+  </si>
+  <si>
+    <t>Moreno Valley patio loveseat with Sunbrella Canvas rust Cushion</t>
+  </si>
+  <si>
+    <t>Broadview Patio Sofa with Sunbrella Spectrum Dove Cushions</t>
+  </si>
+  <si>
+    <t>St. Augustine 5‐Piece Aluminum Patio Chat Set with "Coastal Blue" Cushions</t>
+  </si>
+  <si>
+    <t>St. Augustine 5-Piece Aluminum Patio Chat Set with Coral Cushions</t>
+  </si>
+  <si>
+    <t>Tacana 7pc Woven Dining Set</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Woven Deep Seating Set</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Sectional</t>
+  </si>
+  <si>
+    <t>Tacana 32in Table</t>
+  </si>
+  <si>
+    <t>Tacana Wicker Outdoor Chaise Lounge(2-Pack)</t>
+  </si>
+  <si>
+    <t>Aluminum 9pc Dining Set Box</t>
+  </si>
+  <si>
+    <t>Aluminum 5pc Sling High Dining</t>
+  </si>
+  <si>
+    <t>Aluminum 7pc Sling High Dining</t>
+  </si>
+  <si>
+    <t>River Oak 4pc Steel sling padded dining set</t>
+  </si>
+  <si>
+    <t>River Oak 7pc Steel sling padded dining set</t>
+  </si>
+  <si>
+    <t>Aria 3pc Balcony Chair</t>
+  </si>
+  <si>
+    <t>205364014-C</t>
+  </si>
+  <si>
+    <t>Aria 3pc Balcony Table</t>
+  </si>
+  <si>
+    <t>205364014-T</t>
+  </si>
+  <si>
+    <t>Aria 7pc Dining Set-Chair only</t>
+  </si>
+  <si>
+    <t>205364027-C</t>
+  </si>
+  <si>
+    <t>Aria 7pc Dining Set-Table only</t>
+  </si>
+  <si>
+    <t>205364027-T</t>
+  </si>
+  <si>
+    <t>Aria 5pc High Dining Set(CHAIR ONLY)</t>
+  </si>
+  <si>
+    <t>205364062-C</t>
+  </si>
+  <si>
+    <t>Aria 5pc High Dining Set(TABLE ONLY)</t>
+  </si>
+  <si>
+    <t>205364062-T</t>
+  </si>
+  <si>
+    <t>Vichy Springs 7 -Piece Patio High Dining Set 1of2</t>
+  </si>
+  <si>
+    <t>205364064-C</t>
+  </si>
+  <si>
+    <t>Vichy Springs 7 -Piece Patio High Dining Set 2of2</t>
+  </si>
+  <si>
+    <t>205364064-T</t>
+  </si>
+  <si>
+    <t>Tacana 7pc Woven Dining Set- Chair only</t>
+  </si>
+  <si>
+    <t>206783918-C</t>
+  </si>
+  <si>
+    <t>Tacana 7pc Woven Dining Set- Table only</t>
+  </si>
+  <si>
+    <t>206783918-T</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Woven Deep Seating Set - Chair only</t>
+  </si>
+  <si>
+    <t>206783919-C</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Woven Deep Seating Set - Table only</t>
+  </si>
+  <si>
+    <t>206783919-T</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Sectional Box 1/2</t>
+  </si>
+  <si>
+    <t>207205876-1</t>
+  </si>
+  <si>
+    <t>Tacana 4pc Sectional Box 2/2</t>
+  </si>
+  <si>
+    <t>207205876-2</t>
+  </si>
+  <si>
+    <t>Aluminum 9pc Dining Set Box 1/2</t>
+  </si>
+  <si>
+    <t>302217256-1</t>
+  </si>
+  <si>
+    <t>Aluminum 9pc Dining Set Box 2/2</t>
+  </si>
+  <si>
+    <t>302217256-2</t>
+  </si>
+  <si>
+    <t>Aluminum 5pc Sling High Dining Box 1/3</t>
+  </si>
+  <si>
+    <t>302217393-1</t>
+  </si>
+  <si>
+    <t>Aluminum 5pc Sling High Dining Box 2/3</t>
+  </si>
+  <si>
+    <t>302217393-2</t>
+  </si>
+  <si>
+    <t>Aluminum 5pc Sling High Dining Box 3/3</t>
+  </si>
+  <si>
+    <t>302217393-3</t>
+  </si>
+  <si>
+    <t>Aluminum 7pc Sling High Dining Box 1/4</t>
+  </si>
+  <si>
+    <t>302217516-1</t>
+  </si>
+  <si>
+    <t>Aluminum 7pc Sling High Dining Box 2/4</t>
+  </si>
+  <si>
+    <t>302217516-2</t>
+  </si>
+  <si>
+    <t>Aluminum 7pc Sling High Dining Box 3/4</t>
+  </si>
+  <si>
+    <t>302217516-3</t>
+  </si>
+  <si>
+    <t>Aluminum 7pc Sling High Dining Box 4/4</t>
+  </si>
+  <si>
+    <t>302217516-4</t>
+  </si>
+  <si>
+    <t>River Oak 7pc Steel sling padded dining set - Chair only</t>
+  </si>
+  <si>
+    <t>304170054-c</t>
+  </si>
+  <si>
+    <t>River Oak 7pc Steel sling padded dining set - Table only</t>
+  </si>
+  <si>
+    <t>304170054-T</t>
   </si>
 </sst>
 </file>
@@ -390,7 +606,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="88.406982" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -429,14 +645,830 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>204067542</v>
+      </c>
+      <c r="D2">
+        <v>204067542</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2000</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>204067554</v>
+      </c>
+      <c r="D3">
+        <v>204067554</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>205362656</v>
+      </c>
+      <c r="D4">
+        <v>205362656</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>205364015</v>
+      </c>
+      <c r="D5">
+        <v>205364014</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>205364028</v>
+      </c>
+      <c r="D6">
+        <v>205364027</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>205364037</v>
+      </c>
+      <c r="D7">
+        <v>205364037</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>205364055</v>
+      </c>
+      <c r="D8">
+        <v>205364055</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>205364056</v>
+      </c>
+      <c r="D9">
+        <v>205364056</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>205364063</v>
+      </c>
+      <c r="D10">
+        <v>205364062</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>205364064</v>
+      </c>
+      <c r="D11">
+        <v>205364064</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>206186646</v>
+      </c>
+      <c r="D12">
+        <v>206186646</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>206186896</v>
+      </c>
+      <c r="D13">
+        <v>206186896</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>206661115</v>
+      </c>
+      <c r="D14">
+        <v>206661115</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>206661145</v>
+      </c>
+      <c r="D15">
+        <v>206661145</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>206783918</v>
+      </c>
+      <c r="D16">
+        <v>206783918</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>206783919</v>
+      </c>
+      <c r="D17">
+        <v>206783919</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>207205876</v>
+      </c>
+      <c r="D18">
+        <v>207205876</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>300018884</v>
+      </c>
+      <c r="D19">
+        <v>300018884</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>300019712</v>
+      </c>
+      <c r="D20">
+        <v>300019712</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>302217256</v>
+      </c>
+      <c r="D21">
+        <v>302217256</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>302217393</v>
+      </c>
+      <c r="D22">
+        <v>302217393</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>302217516</v>
+      </c>
+      <c r="D23">
+        <v>302217516</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>304159111</v>
+      </c>
+      <c r="D24">
+        <v>304159111</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>304170054</v>
+      </c>
+      <c r="D25">
+        <v>304170054</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -256,6 +256,219 @@
   </si>
   <si>
     <t>304170054-T</t>
+  </si>
+  <si>
+    <t>Driscol dining bistro table with patterned glass top</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>191440000009</t>
+  </si>
+  <si>
+    <t>Driscol deep seating 4pc set</t>
+  </si>
+  <si>
+    <t>191440000016</t>
+  </si>
+  <si>
+    <t>Palm City chaise lounge with folding legs</t>
+  </si>
+  <si>
+    <t>191440000023</t>
+  </si>
+  <si>
+    <t>Vinehaven high dining bar table with patterned glass top and sling skirt</t>
+  </si>
+  <si>
+    <t>191440000030</t>
+  </si>
+  <si>
+    <t>Vinehaven high dining bar chair - 4pk</t>
+  </si>
+  <si>
+    <t>191440000047</t>
+  </si>
+  <si>
+    <t>Vinehaven chaise lounge</t>
+  </si>
+  <si>
+    <t>191440000054</t>
+  </si>
+  <si>
+    <t>Vinehaven deep seating 2 person glider</t>
+  </si>
+  <si>
+    <t>191440000061</t>
+  </si>
+  <si>
+    <t>Vinehaven 20x20" Square Steel End Table</t>
+  </si>
+  <si>
+    <t>191440000085</t>
+  </si>
+  <si>
+    <t>Palm City 4pc Conversation Set</t>
+  </si>
+  <si>
+    <t>191440000092</t>
+  </si>
+  <si>
+    <t>Palm City Side Table</t>
+  </si>
+  <si>
+    <t>191440000108</t>
+  </si>
+  <si>
+    <t>Palm City 2pack Armless Conversation Chairs</t>
+  </si>
+  <si>
+    <t>191440000115</t>
+  </si>
+  <si>
+    <t>Palm City Functional Corner</t>
+  </si>
+  <si>
+    <t>191440000122</t>
+  </si>
+  <si>
+    <t>Palm City Hybrid Table</t>
+  </si>
+  <si>
+    <t>191440000139</t>
+  </si>
+  <si>
+    <t>Kingsmead Square Bistro Table</t>
+  </si>
+  <si>
+    <t>191440000146</t>
+  </si>
+  <si>
+    <t>Kingsmead Square Dining Table</t>
+  </si>
+  <si>
+    <t>191440000153</t>
+  </si>
+  <si>
+    <t>Kingsmead Chaise Lounge</t>
+  </si>
+  <si>
+    <t>191440000160</t>
+  </si>
+  <si>
+    <t>Kingsmead Chat Table</t>
+  </si>
+  <si>
+    <t>191440000177</t>
+  </si>
+  <si>
+    <t>Kingsmead 2pack Swivel Rocker Conv Chairs</t>
+  </si>
+  <si>
+    <t>191440000184</t>
+  </si>
+  <si>
+    <t>Kingsmead Loveseat and coffee table</t>
+  </si>
+  <si>
+    <t>191440000191</t>
+  </si>
+  <si>
+    <t>Kingsmead conversation chair (2pk) - KD version</t>
+  </si>
+  <si>
+    <t>191440000207</t>
+  </si>
+  <si>
+    <t>GT 7.5 Red Stripe Market Umbrella</t>
+  </si>
+  <si>
+    <t>GT 7.5 Navy Stripe Market Umbrella</t>
+  </si>
+  <si>
+    <t>GT Vinehaven 7' x 9' Market Steel Umbrella</t>
+  </si>
+  <si>
+    <t>GT Kingsmead 7' x 9' Market Steel Umbrella</t>
+  </si>
+  <si>
+    <t>RG 11' Market Aluminum Umbrella ‐ Tan</t>
+  </si>
+  <si>
+    <t>RG 11' Market Aluminum Umbrella ‐ Red</t>
+  </si>
+  <si>
+    <t>RG 11' Market Aluminum Umbrella ‐ Blue</t>
+  </si>
+  <si>
+    <t>RG 11' Offset Aluminum / Steel Umbrella ‐ Tan</t>
+  </si>
+  <si>
+    <t>RG 11' Offset Aluminum / Steel Umbrella ‐ Red</t>
+  </si>
+  <si>
+    <t>RG 11' Offset Aluminum / Steel Umbrella ‐ Blue</t>
+  </si>
+  <si>
+    <t>804810 29x36x25</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 1/6</t>
+  </si>
+  <si>
+    <t>191440000078-1</t>
+  </si>
+  <si>
+    <t>833583-1</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 2/6</t>
+  </si>
+  <si>
+    <t>191440000078-2</t>
+  </si>
+  <si>
+    <t>833583-2</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 3/6</t>
+  </si>
+  <si>
+    <t>191440000078-3</t>
+  </si>
+  <si>
+    <t>833583-3</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 4/6</t>
+  </si>
+  <si>
+    <t>191440000078-4</t>
+  </si>
+  <si>
+    <t>833583-4</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 5/6</t>
+  </si>
+  <si>
+    <t>191440000078-5</t>
+  </si>
+  <si>
+    <t>833583-5</t>
+  </si>
+  <si>
+    <t>Replacement Top for Porch Swing or Glider - 6/6</t>
+  </si>
+  <si>
+    <t>191440000078-6</t>
+  </si>
+  <si>
+    <t>833583-6</t>
+  </si>
+  <si>
+    <t>RC-02</t>
   </si>
 </sst>
 </file>
@@ -606,7 +819,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,8 +828,8 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="88.406982" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -1468,6 +1681,652 @@
         <v>79</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51">
+        <v>833576</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52">
+        <v>833577</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53">
+        <v>833578</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>833579</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>833580</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+      <c r="D56">
+        <v>833581</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57">
+        <v>833582</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58">
+        <v>833584</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59">
+        <v>833585</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>833586</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61">
+        <v>833587</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62">
+        <v>833588</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63">
+        <v>833589</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64">
+        <v>833590</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65">
+        <v>833591</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66">
+        <v>833592</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67">
+        <v>833593</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68">
+        <v>833597</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69">
+        <v>833599</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70">
+        <v>848237</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71">
+        <v>957346</v>
+      </c>
+      <c r="D71">
+        <v>957346</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72">
+        <v>957347</v>
+      </c>
+      <c r="D72">
+        <v>957347</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73">
+        <v>957348</v>
+      </c>
+      <c r="D73">
+        <v>957348</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>957349</v>
+      </c>
+      <c r="D74">
+        <v>957349</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75">
+        <v>957350</v>
+      </c>
+      <c r="D75">
+        <v>957350</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76">
+        <v>957351</v>
+      </c>
+      <c r="D76">
+        <v>957351</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>957352</v>
+      </c>
+      <c r="D77">
+        <v>957352</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>957353</v>
+      </c>
+      <c r="D78">
+        <v>957353</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>957354</v>
+      </c>
+      <c r="D79">
+        <v>957354</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>957355</v>
+      </c>
+      <c r="D80">
+        <v>957355</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>804810</v>
+      </c>
+      <c r="D81">
+        <v>804810</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" t="s">
+        <v>134</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>138</v>
+      </c>
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" t="s">
+        <v>148</v>
+      </c>
+      <c r="D87" t="s">
+        <v>149</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>150</v>
+      </c>
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -33,163 +33,46 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>RC-02</t>
-  </si>
-  <si>
-    <t>X000Y005WP</t>
-  </si>
-  <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>RC-06</t>
-  </si>
-  <si>
-    <t>X000Y005X9</t>
-  </si>
-  <si>
-    <t>RC-10</t>
-  </si>
-  <si>
-    <t>X0016B6TV7</t>
-  </si>
-  <si>
-    <t>RC-11</t>
-  </si>
-  <si>
-    <t>X00169XD95</t>
-  </si>
-  <si>
-    <t>RC-12</t>
-  </si>
-  <si>
-    <t>X00169OB87</t>
-  </si>
-  <si>
-    <t>RC-15</t>
-  </si>
-  <si>
-    <t>X001CPSMEJ</t>
-  </si>
-  <si>
-    <t>RC-16</t>
-  </si>
-  <si>
-    <t>X001CPMDPX</t>
-  </si>
-  <si>
-    <t>RC-17</t>
-  </si>
-  <si>
-    <t>X001CQE0FD</t>
-  </si>
-  <si>
-    <t>RC-18</t>
-  </si>
-  <si>
-    <t>X001CQE0FX</t>
-  </si>
-  <si>
-    <t>RC-19</t>
-  </si>
-  <si>
-    <t>X001CNW52B</t>
-  </si>
-  <si>
-    <t>RC-21</t>
-  </si>
-  <si>
-    <t>X00177V42T</t>
-  </si>
-  <si>
-    <t>RC-22</t>
-  </si>
-  <si>
-    <t>X001DNSXKD</t>
-  </si>
-  <si>
-    <t>RC-23</t>
-  </si>
-  <si>
-    <t>X001DNSN67</t>
-  </si>
-  <si>
-    <t>RC-27</t>
-  </si>
-  <si>
-    <t>X001DNSI67</t>
-  </si>
-  <si>
-    <t>RC-28</t>
-  </si>
-  <si>
-    <t>X001DNP11H</t>
-  </si>
-  <si>
-    <t>RC-31</t>
-  </si>
-  <si>
-    <t>X001DNSXK3</t>
-  </si>
-  <si>
-    <t>RC-32</t>
-  </si>
-  <si>
-    <t>X001DNSW31</t>
-  </si>
-  <si>
-    <t>RC-33</t>
-  </si>
-  <si>
-    <t>X001DNP1C1</t>
-  </si>
-  <si>
-    <t>RC-34</t>
-  </si>
-  <si>
-    <t>X001DNT1H7</t>
-  </si>
-  <si>
-    <t>NRC-41</t>
-  </si>
-  <si>
-    <t>X001GQIPSR</t>
-  </si>
-  <si>
-    <t>NRC-43</t>
-  </si>
-  <si>
-    <t>X001GQHV19</t>
-  </si>
-  <si>
-    <t>RC-45</t>
-  </si>
-  <si>
-    <t>X001DTZDIR</t>
-  </si>
-  <si>
-    <t>RC-47</t>
-  </si>
-  <si>
-    <t>X001E3MQ23</t>
-  </si>
-  <si>
-    <t>RC-48</t>
-  </si>
-  <si>
-    <t>X001DOG9WL</t>
+    <t>LJX-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>BL-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>X00155OJ57</t>
+  </si>
+  <si>
+    <t>BL-22D8Y-BOX</t>
+  </si>
+  <si>
+    <t>X001643CZ5</t>
+  </si>
+  <si>
+    <t>BL-22D6WY-BOX</t>
+  </si>
+  <si>
+    <t>X0015BOJMJ</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>jeep grand cherokee cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001OL66RB</t>
   </si>
 </sst>
 </file>
@@ -540,7 +423,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,10 +431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -583,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -600,10 +483,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -617,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,7 +517,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -648,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -659,13 +542,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -676,341 +559,18 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -33,46 +33,166 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LJX-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
-  </si>
-  <si>
-    <t>X001W2CU5J</t>
-  </si>
-  <si>
-    <t>BL-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>X00155OJ57</t>
-  </si>
-  <si>
-    <t>BL-22D8Y-BOX</t>
-  </si>
-  <si>
-    <t>X001643CZ5</t>
-  </si>
-  <si>
-    <t>BL-22D6WY-BOX</t>
-  </si>
-  <si>
-    <t>X0015BOJMJ</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Chevy Equinox cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001QM0TWV</t>
-  </si>
-  <si>
-    <t>jeep grand cherokee cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001OL66RB</t>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>RC-02</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>X000Y005WP</t>
+  </si>
+  <si>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>RC-06</t>
+  </si>
+  <si>
+    <t>X000Y005X9</t>
+  </si>
+  <si>
+    <t>RC-10</t>
+  </si>
+  <si>
+    <t>X0016B6TV7</t>
+  </si>
+  <si>
+    <t>RC-11</t>
+  </si>
+  <si>
+    <t>X00169XD95</t>
+  </si>
+  <si>
+    <t>RC-12</t>
+  </si>
+  <si>
+    <t>X00169OB87</t>
+  </si>
+  <si>
+    <t>RC-15</t>
+  </si>
+  <si>
+    <t>X001CPSMEJ</t>
+  </si>
+  <si>
+    <t>RC-16</t>
+  </si>
+  <si>
+    <t>X001CPMDPX</t>
+  </si>
+  <si>
+    <t>RC-17</t>
+  </si>
+  <si>
+    <t>X001CQE0FD</t>
+  </si>
+  <si>
+    <t>RC-18</t>
+  </si>
+  <si>
+    <t>X001CQE0FX</t>
+  </si>
+  <si>
+    <t>RC-19</t>
+  </si>
+  <si>
+    <t>X001CNW52B</t>
+  </si>
+  <si>
+    <t>RC-21</t>
+  </si>
+  <si>
+    <t>X00177V42T</t>
+  </si>
+  <si>
+    <t>RC-22</t>
+  </si>
+  <si>
+    <t>X001DNSXKD</t>
+  </si>
+  <si>
+    <t>RC-23</t>
+  </si>
+  <si>
+    <t>X001DNSN67</t>
+  </si>
+  <si>
+    <t>RC-27</t>
+  </si>
+  <si>
+    <t>X001DNSI67</t>
+  </si>
+  <si>
+    <t>RC-28</t>
+  </si>
+  <si>
+    <t>X001DNP11H</t>
+  </si>
+  <si>
+    <t>RC-31</t>
+  </si>
+  <si>
+    <t>X001DNSXK3</t>
+  </si>
+  <si>
+    <t>RC-32</t>
+  </si>
+  <si>
+    <t>X001DNSW31</t>
+  </si>
+  <si>
+    <t>RC-33</t>
+  </si>
+  <si>
+    <t>X001DNP1C1</t>
+  </si>
+  <si>
+    <t>RC-34</t>
+  </si>
+  <si>
+    <t>X001DNT1H7</t>
+  </si>
+  <si>
+    <t>NRC-41</t>
+  </si>
+  <si>
+    <t>X001GQIPSR</t>
+  </si>
+  <si>
+    <t>NRC-43</t>
+  </si>
+  <si>
+    <t>X001GQHV19</t>
+  </si>
+  <si>
+    <t>RC-45</t>
+  </si>
+  <si>
+    <t>X001DTZDIR</t>
+  </si>
+  <si>
+    <t>RC-47</t>
+  </si>
+  <si>
+    <t>X001E3MQ23</t>
+  </si>
+  <si>
+    <t>RC-48</t>
+  </si>
+  <si>
+    <t>X001DOG9WL</t>
   </si>
 </sst>
 </file>
@@ -423,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +551,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -466,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -477,13 +597,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -491,13 +611,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -508,13 +628,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -525,16 +645,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -542,16 +662,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -559,18 +679,341 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -33,46 +33,169 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LJX-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
-  </si>
-  <si>
-    <t>X001W2CU5J</t>
-  </si>
-  <si>
-    <t>BL-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>X00155OJ57</t>
-  </si>
-  <si>
-    <t>BL-22D8Y-BOX</t>
-  </si>
-  <si>
-    <t>X001643CZ5</t>
-  </si>
-  <si>
-    <t>BL-22D6WY-BOX</t>
-  </si>
-  <si>
-    <t>X0015BOJMJ</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Chevy Equinox cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001QM0TWV</t>
-  </si>
-  <si>
-    <t>jeep grand cherokee cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001OL66RB</t>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>RC-02</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>X000Y005WP</t>
+  </si>
+  <si>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>RC-06</t>
+  </si>
+  <si>
+    <t>X000Y005X9</t>
+  </si>
+  <si>
+    <t>RC-10</t>
+  </si>
+  <si>
+    <t>X0016B6TV7</t>
+  </si>
+  <si>
+    <t>RC-11</t>
+  </si>
+  <si>
+    <t>X00169XD95</t>
+  </si>
+  <si>
+    <t>RC-12</t>
+  </si>
+  <si>
+    <t>X00169OB87</t>
+  </si>
+  <si>
+    <t>RC-15</t>
+  </si>
+  <si>
+    <t>X001CPSMEJ</t>
+  </si>
+  <si>
+    <t>RC-16</t>
+  </si>
+  <si>
+    <t>X001CPMDPX</t>
+  </si>
+  <si>
+    <t>RC-17</t>
+  </si>
+  <si>
+    <t>X001CQE0FD</t>
+  </si>
+  <si>
+    <t>RC-18</t>
+  </si>
+  <si>
+    <t>X001CQE0FX</t>
+  </si>
+  <si>
+    <t>RC-19</t>
+  </si>
+  <si>
+    <t>X001CNW52B</t>
+  </si>
+  <si>
+    <t>RC-21</t>
+  </si>
+  <si>
+    <t>X00177V42T</t>
+  </si>
+  <si>
+    <t>RC-22</t>
+  </si>
+  <si>
+    <t>X001DNSXKD</t>
+  </si>
+  <si>
+    <t>RC-23</t>
+  </si>
+  <si>
+    <t>X001DNSN67</t>
+  </si>
+  <si>
+    <t>RC-27</t>
+  </si>
+  <si>
+    <t>X001DNSI67</t>
+  </si>
+  <si>
+    <t>RC-28</t>
+  </si>
+  <si>
+    <t>X001DNP11H</t>
+  </si>
+  <si>
+    <t>RC-31</t>
+  </si>
+  <si>
+    <t>X001DNSXK3</t>
+  </si>
+  <si>
+    <t>RC-32</t>
+  </si>
+  <si>
+    <t>X001DNSW31</t>
+  </si>
+  <si>
+    <t>RC-33</t>
+  </si>
+  <si>
+    <t>X001DNP1C1</t>
+  </si>
+  <si>
+    <t>RC-34</t>
+  </si>
+  <si>
+    <t>X001DNT1H7</t>
+  </si>
+  <si>
+    <t>NRC-41</t>
+  </si>
+  <si>
+    <t>X001GQIPSR</t>
+  </si>
+  <si>
+    <t>NRC-43</t>
+  </si>
+  <si>
+    <t>X001GQHV19</t>
+  </si>
+  <si>
+    <t>RC-45</t>
+  </si>
+  <si>
+    <t>X001DTZDIR</t>
+  </si>
+  <si>
+    <t>RC-47</t>
+  </si>
+  <si>
+    <t>X001E3MQ23</t>
+  </si>
+  <si>
+    <t>RC-48</t>
+  </si>
+  <si>
+    <t>X001DOG9WL</t>
+  </si>
+  <si>
+    <t>test1000</t>
   </si>
 </sst>
 </file>
@@ -423,7 +546,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +554,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -466,10 +589,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -477,101 +600,439 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>X001DOG9WL</t>
-  </si>
-  <si>
-    <t>test1000</t>
   </si>
 </sst>
 </file>
@@ -546,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,10 +551,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1017,21 +1014,6 @@
         <v>57</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -589,7 +589,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -623,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -33,166 +33,88 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>Arron Dong</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>RC-02</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>X000Y005WP</t>
-  </si>
-  <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>RC-06</t>
-  </si>
-  <si>
-    <t>X000Y005X9</t>
-  </si>
-  <si>
-    <t>RC-10</t>
-  </si>
-  <si>
-    <t>X0016B6TV7</t>
-  </si>
-  <si>
-    <t>RC-11</t>
-  </si>
-  <si>
-    <t>X00169XD95</t>
-  </si>
-  <si>
-    <t>RC-12</t>
-  </si>
-  <si>
-    <t>X00169OB87</t>
-  </si>
-  <si>
-    <t>RC-15</t>
-  </si>
-  <si>
-    <t>X001CPSMEJ</t>
-  </si>
-  <si>
-    <t>RC-16</t>
-  </si>
-  <si>
-    <t>X001CPMDPX</t>
-  </si>
-  <si>
-    <t>RC-17</t>
-  </si>
-  <si>
-    <t>X001CQE0FD</t>
-  </si>
-  <si>
-    <t>RC-18</t>
-  </si>
-  <si>
-    <t>X001CQE0FX</t>
-  </si>
-  <si>
-    <t>RC-19</t>
-  </si>
-  <si>
-    <t>X001CNW52B</t>
-  </si>
-  <si>
-    <t>RC-21</t>
-  </si>
-  <si>
-    <t>X00177V42T</t>
-  </si>
-  <si>
-    <t>RC-22</t>
-  </si>
-  <si>
-    <t>X001DNSXKD</t>
-  </si>
-  <si>
-    <t>RC-23</t>
-  </si>
-  <si>
-    <t>X001DNSN67</t>
-  </si>
-  <si>
-    <t>RC-27</t>
-  </si>
-  <si>
-    <t>X001DNSI67</t>
-  </si>
-  <si>
-    <t>RC-28</t>
-  </si>
-  <si>
-    <t>X001DNP11H</t>
-  </si>
-  <si>
-    <t>RC-31</t>
-  </si>
-  <si>
-    <t>X001DNSXK3</t>
-  </si>
-  <si>
-    <t>RC-32</t>
-  </si>
-  <si>
-    <t>X001DNSW31</t>
-  </si>
-  <si>
-    <t>RC-33</t>
-  </si>
-  <si>
-    <t>X001DNP1C1</t>
-  </si>
-  <si>
-    <t>RC-34</t>
-  </si>
-  <si>
-    <t>X001DNT1H7</t>
-  </si>
-  <si>
-    <t>NRC-41</t>
-  </si>
-  <si>
-    <t>X001GQIPSR</t>
-  </si>
-  <si>
-    <t>NRC-43</t>
-  </si>
-  <si>
-    <t>X001GQHV19</t>
-  </si>
-  <si>
-    <t>RC-45</t>
-  </si>
-  <si>
-    <t>X001DTZDIR</t>
-  </si>
-  <si>
-    <t>RC-47</t>
-  </si>
-  <si>
-    <t>X001E3MQ23</t>
-  </si>
-  <si>
-    <t>RC-48</t>
-  </si>
-  <si>
-    <t>X001DOG9WL</t>
+    <t>LJX-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>BL-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>X00155OJ57</t>
+  </si>
+  <si>
+    <t>BL-22D8Y-BOX</t>
+  </si>
+  <si>
+    <t>X001643CZ5</t>
+  </si>
+  <si>
+    <t>BL-22D6WY-BOX</t>
+  </si>
+  <si>
+    <t>X0015BOJMJ</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>jeep grand cherokee cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001OL66RB</t>
+  </si>
+  <si>
+    <t>backpackGray</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>FlapBagG</t>
+  </si>
+  <si>
+    <t>backpackBlack</t>
+  </si>
+  <si>
+    <t>FlapBagB</t>
+  </si>
+  <si>
+    <t>SkateboardbackpackBlack</t>
+  </si>
+  <si>
+    <t>backpackwithraincover</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>OA6</t>
   </si>
 </sst>
 </file>
@@ -543,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +473,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -586,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -597,13 +519,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,30 +533,30 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -645,16 +567,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -662,16 +584,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -679,16 +601,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -696,50 +618,50 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -747,16 +669,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -764,16 +686,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -781,16 +703,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -798,16 +720,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -815,16 +737,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -832,16 +754,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -849,171 +771,18 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -33,88 +33,166 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LJX-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
-  </si>
-  <si>
-    <t>X001W2CU5J</t>
-  </si>
-  <si>
-    <t>BL-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>X00155OJ57</t>
-  </si>
-  <si>
-    <t>BL-22D8Y-BOX</t>
-  </si>
-  <si>
-    <t>X001643CZ5</t>
-  </si>
-  <si>
-    <t>BL-22D6WY-BOX</t>
-  </si>
-  <si>
-    <t>X0015BOJMJ</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Chevy Equinox cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001QM0TWV</t>
-  </si>
-  <si>
-    <t>jeep grand cherokee cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001OL66RB</t>
-  </si>
-  <si>
-    <t>backpackGray</t>
-  </si>
-  <si>
-    <t>Amy Huang</t>
-  </si>
-  <si>
-    <t>FlapBagG</t>
-  </si>
-  <si>
-    <t>backpackBlack</t>
-  </si>
-  <si>
-    <t>FlapBagB</t>
-  </si>
-  <si>
-    <t>SkateboardbackpackBlack</t>
-  </si>
-  <si>
-    <t>backpackwithraincover</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>OA9</t>
-  </si>
-  <si>
-    <t>OA13</t>
-  </si>
-  <si>
-    <t>OA6</t>
+    <t>NRC-91</t>
+  </si>
+  <si>
+    <t>Arron Dong</t>
+  </si>
+  <si>
+    <t>X001D08AXL</t>
+  </si>
+  <si>
+    <t>RC-02</t>
+  </si>
+  <si>
+    <t>Huang Xiaojian</t>
+  </si>
+  <si>
+    <t>X000Y005WP</t>
+  </si>
+  <si>
+    <t>RC-03</t>
+  </si>
+  <si>
+    <t>X000Y005XJ</t>
+  </si>
+  <si>
+    <t>RC-06</t>
+  </si>
+  <si>
+    <t>X000Y005X9</t>
+  </si>
+  <si>
+    <t>RC-10</t>
+  </si>
+  <si>
+    <t>X0016B6TV7</t>
+  </si>
+  <si>
+    <t>RC-11</t>
+  </si>
+  <si>
+    <t>X00169XD95</t>
+  </si>
+  <si>
+    <t>RC-12</t>
+  </si>
+  <si>
+    <t>X00169OB87</t>
+  </si>
+  <si>
+    <t>RC-15</t>
+  </si>
+  <si>
+    <t>X001CPSMEJ</t>
+  </si>
+  <si>
+    <t>RC-16</t>
+  </si>
+  <si>
+    <t>X001CPMDPX</t>
+  </si>
+  <si>
+    <t>RC-17</t>
+  </si>
+  <si>
+    <t>X001CQE0FD</t>
+  </si>
+  <si>
+    <t>RC-18</t>
+  </si>
+  <si>
+    <t>X001CQE0FX</t>
+  </si>
+  <si>
+    <t>RC-19</t>
+  </si>
+  <si>
+    <t>X001CNW52B</t>
+  </si>
+  <si>
+    <t>RC-21</t>
+  </si>
+  <si>
+    <t>X00177V42T</t>
+  </si>
+  <si>
+    <t>RC-22</t>
+  </si>
+  <si>
+    <t>X001DNSXKD</t>
+  </si>
+  <si>
+    <t>RC-23</t>
+  </si>
+  <si>
+    <t>X001DNSN67</t>
+  </si>
+  <si>
+    <t>RC-27</t>
+  </si>
+  <si>
+    <t>X001DNSI67</t>
+  </si>
+  <si>
+    <t>RC-28</t>
+  </si>
+  <si>
+    <t>X001DNP11H</t>
+  </si>
+  <si>
+    <t>RC-31</t>
+  </si>
+  <si>
+    <t>X001DNSXK3</t>
+  </si>
+  <si>
+    <t>RC-32</t>
+  </si>
+  <si>
+    <t>X001DNSW31</t>
+  </si>
+  <si>
+    <t>RC-33</t>
+  </si>
+  <si>
+    <t>X001DNP1C1</t>
+  </si>
+  <si>
+    <t>RC-34</t>
+  </si>
+  <si>
+    <t>X001DNT1H7</t>
+  </si>
+  <si>
+    <t>NRC-41</t>
+  </si>
+  <si>
+    <t>X001GQIPSR</t>
+  </si>
+  <si>
+    <t>NRC-43</t>
+  </si>
+  <si>
+    <t>X001GQHV19</t>
+  </si>
+  <si>
+    <t>RC-45</t>
+  </si>
+  <si>
+    <t>X001DTZDIR</t>
+  </si>
+  <si>
+    <t>RC-47</t>
+  </si>
+  <si>
+    <t>X001E3MQ23</t>
+  </si>
+  <si>
+    <t>RC-48</t>
+  </si>
+  <si>
+    <t>X001DOG9WL</t>
   </si>
 </sst>
 </file>
@@ -465,7 +543,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,10 +551,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -508,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -519,13 +597,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -533,30 +611,30 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -567,16 +645,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -584,16 +662,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -601,16 +679,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,50 +696,50 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -669,16 +747,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -686,16 +764,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -703,16 +781,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -720,16 +798,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -737,16 +815,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -754,16 +832,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -771,18 +849,171 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -33,166 +33,88 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>NRC-91</t>
-  </si>
-  <si>
-    <t>Arron Dong</t>
-  </si>
-  <si>
-    <t>X001D08AXL</t>
-  </si>
-  <si>
-    <t>RC-02</t>
-  </si>
-  <si>
-    <t>Huang Xiaojian</t>
-  </si>
-  <si>
-    <t>X000Y005WP</t>
-  </si>
-  <si>
-    <t>RC-03</t>
-  </si>
-  <si>
-    <t>X000Y005XJ</t>
-  </si>
-  <si>
-    <t>RC-06</t>
-  </si>
-  <si>
-    <t>X000Y005X9</t>
-  </si>
-  <si>
-    <t>RC-10</t>
-  </si>
-  <si>
-    <t>X0016B6TV7</t>
-  </si>
-  <si>
-    <t>RC-11</t>
-  </si>
-  <si>
-    <t>X00169XD95</t>
-  </si>
-  <si>
-    <t>RC-12</t>
-  </si>
-  <si>
-    <t>X00169OB87</t>
-  </si>
-  <si>
-    <t>RC-15</t>
-  </si>
-  <si>
-    <t>X001CPSMEJ</t>
-  </si>
-  <si>
-    <t>RC-16</t>
-  </si>
-  <si>
-    <t>X001CPMDPX</t>
-  </si>
-  <si>
-    <t>RC-17</t>
-  </si>
-  <si>
-    <t>X001CQE0FD</t>
-  </si>
-  <si>
-    <t>RC-18</t>
-  </si>
-  <si>
-    <t>X001CQE0FX</t>
-  </si>
-  <si>
-    <t>RC-19</t>
-  </si>
-  <si>
-    <t>X001CNW52B</t>
-  </si>
-  <si>
-    <t>RC-21</t>
-  </si>
-  <si>
-    <t>X00177V42T</t>
-  </si>
-  <si>
-    <t>RC-22</t>
-  </si>
-  <si>
-    <t>X001DNSXKD</t>
-  </si>
-  <si>
-    <t>RC-23</t>
-  </si>
-  <si>
-    <t>X001DNSN67</t>
-  </si>
-  <si>
-    <t>RC-27</t>
-  </si>
-  <si>
-    <t>X001DNSI67</t>
-  </si>
-  <si>
-    <t>RC-28</t>
-  </si>
-  <si>
-    <t>X001DNP11H</t>
-  </si>
-  <si>
-    <t>RC-31</t>
-  </si>
-  <si>
-    <t>X001DNSXK3</t>
-  </si>
-  <si>
-    <t>RC-32</t>
-  </si>
-  <si>
-    <t>X001DNSW31</t>
-  </si>
-  <si>
-    <t>RC-33</t>
-  </si>
-  <si>
-    <t>X001DNP1C1</t>
-  </si>
-  <si>
-    <t>RC-34</t>
-  </si>
-  <si>
-    <t>X001DNT1H7</t>
-  </si>
-  <si>
-    <t>NRC-41</t>
-  </si>
-  <si>
-    <t>X001GQIPSR</t>
-  </si>
-  <si>
-    <t>NRC-43</t>
-  </si>
-  <si>
-    <t>X001GQHV19</t>
-  </si>
-  <si>
-    <t>RC-45</t>
-  </si>
-  <si>
-    <t>X001DTZDIR</t>
-  </si>
-  <si>
-    <t>RC-47</t>
-  </si>
-  <si>
-    <t>X001E3MQ23</t>
-  </si>
-  <si>
-    <t>RC-48</t>
-  </si>
-  <si>
-    <t>X001DOG9WL</t>
+    <t>LJX-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>BL-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>X00155OJ57</t>
+  </si>
+  <si>
+    <t>BL-22D8Y-BOX</t>
+  </si>
+  <si>
+    <t>X001643CZ5</t>
+  </si>
+  <si>
+    <t>BL-22D6WY-BOX</t>
+  </si>
+  <si>
+    <t>X0015BOJMJ</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>jeep grand cherokee cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001OL66RB</t>
+  </si>
+  <si>
+    <t>backpackGray</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>FlapBagG</t>
+  </si>
+  <si>
+    <t>backpackBlack</t>
+  </si>
+  <si>
+    <t>FlapBagB</t>
+  </si>
+  <si>
+    <t>SkateboardbackpackBlack</t>
+  </si>
+  <si>
+    <t>backpackwithraincover</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>OA6</t>
   </si>
 </sst>
 </file>
@@ -543,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,10 +473,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -586,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -597,13 +519,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,30 +533,30 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -645,16 +567,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -662,16 +584,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -679,16 +601,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -696,13 +618,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -713,13 +635,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -730,16 +652,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -747,16 +669,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -764,257 +686,104 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>X001W2CU50</t>
   </si>
   <si>
     <t>BL-22D8WY-BOX</t>
@@ -508,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -516,16 +519,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -533,16 +536,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -550,16 +553,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -567,16 +570,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -584,16 +587,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -601,16 +604,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,16 +621,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -635,16 +638,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -652,16 +655,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -669,16 +672,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -686,16 +689,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>55</v>
@@ -703,16 +706,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -720,16 +723,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>17</v>
@@ -737,16 +740,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>51</v>
@@ -754,16 +757,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>39</v>
@@ -771,16 +774,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>18</v>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -701,7 +701,7 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Client</t>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>客户</t>
   </si>
   <si>
     <t>UPC</t>
@@ -30,7 +30,7 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>数量</t>
   </si>
   <si>
     <t>LJX-22D8WY-BOX</t>
@@ -480,7 +480,7 @@
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3.570557" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -18,10 +18,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>客户</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Client</t>
   </si>
   <si>
     <t>UPC</t>
@@ -30,7 +30,7 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>数量</t>
+    <t>Quantity</t>
   </si>
   <si>
     <t>LJX-22D8WY-BOX</t>
@@ -480,7 +480,7 @@
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3.570557" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -76,48 +76,6 @@
   </si>
   <si>
     <t>X001OL66RB</t>
-  </si>
-  <si>
-    <t>backpackGray</t>
-  </si>
-  <si>
-    <t>Amy Huang</t>
-  </si>
-  <si>
-    <t>FlapBagG</t>
-  </si>
-  <si>
-    <t>backpackBlack</t>
-  </si>
-  <si>
-    <t>FlapBagB</t>
-  </si>
-  <si>
-    <t>SkateboardbackpackBlack</t>
-  </si>
-  <si>
-    <t>backpackwithraincover</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>OA9</t>
-  </si>
-  <si>
-    <t>OA13</t>
-  </si>
-  <si>
-    <t>OA6</t>
   </si>
 </sst>
 </file>
@@ -468,7 +426,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,8 +436,8 @@
   <cols>
     <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -617,176 +575,6 @@
       </c>
       <c r="E8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -76,6 +76,48 @@
   </si>
   <si>
     <t>X001OL66RB</t>
+  </si>
+  <si>
+    <t>backpackGray</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>FlapBagG</t>
+  </si>
+  <si>
+    <t>backpackBlack</t>
+  </si>
+  <si>
+    <t>FlapBagB</t>
+  </si>
+  <si>
+    <t>SkateboardbackpackBlack</t>
+  </si>
+  <si>
+    <t>backpackwithraincover</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>OA6</t>
   </si>
 </sst>
 </file>
@@ -426,7 +468,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,8 +478,8 @@
   <cols>
     <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -575,6 +617,176 @@
       </c>
       <c r="E8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -752,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>X001W2CU5J</t>
-  </si>
-  <si>
-    <t>X001W2CU50</t>
   </si>
   <si>
     <t>BL-22D8WY-BOX</t>
@@ -511,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -519,16 +516,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -536,16 +533,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -553,16 +550,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,33 +567,33 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -604,16 +601,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -621,16 +618,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -638,16 +635,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -655,16 +652,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -672,16 +669,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -689,33 +686,33 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -723,70 +720,70 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
         <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -749,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -783,7 +783,7 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -749,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -75,24 +75,12 @@
     <t>X001OL66RB</t>
   </si>
   <si>
-    <t>backpackGray</t>
+    <t>SkateboardbackpackBlack</t>
   </si>
   <si>
     <t>Amy Huang</t>
   </si>
   <si>
-    <t>FlapBagG</t>
-  </si>
-  <si>
-    <t>backpackBlack</t>
-  </si>
-  <si>
-    <t>FlapBagB</t>
-  </si>
-  <si>
-    <t>SkateboardbackpackBlack</t>
-  </si>
-  <si>
     <t>backpackwithraincover</t>
   </si>
   <si>
@@ -111,10 +99,43 @@
     <t>OA9</t>
   </si>
   <si>
-    <t>OA13</t>
-  </si>
-  <si>
-    <t>OA6</t>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA6-1</t>
+  </si>
+  <si>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>foaming bottles</t>
+  </si>
+  <si>
+    <t>OA6-2</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>portree 72 sink</t>
+  </si>
+  <si>
+    <t>portree 30-48 sink</t>
   </si>
 </sst>
 </file>
@@ -465,7 +486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -624,10 +645,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -635,16 +656,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -652,121 +673,121 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -774,16 +795,118 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -75,12 +75,24 @@
     <t>X001OL66RB</t>
   </si>
   <si>
+    <t>backpackGray</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>FlapBagG</t>
+  </si>
+  <si>
+    <t>backpackBlack</t>
+  </si>
+  <si>
+    <t>FlapBagB</t>
+  </si>
+  <si>
     <t>SkateboardbackpackBlack</t>
   </si>
   <si>
-    <t>Amy Huang</t>
-  </si>
-  <si>
     <t>backpackwithraincover</t>
   </si>
   <si>
@@ -99,43 +111,10 @@
     <t>OA9</t>
   </si>
   <si>
-    <t>OA13-1</t>
-  </si>
-  <si>
-    <t>OA6-1</t>
-  </si>
-  <si>
-    <t>4891028707844</t>
-  </si>
-  <si>
-    <t>Fancy Lin</t>
-  </si>
-  <si>
-    <t>bag-1</t>
-  </si>
-  <si>
-    <t>4891028707837</t>
-  </si>
-  <si>
-    <t>bag-4</t>
-  </si>
-  <si>
-    <t>foaming bottles</t>
-  </si>
-  <si>
-    <t>OA6-2</t>
-  </si>
-  <si>
-    <t>OA13-2</t>
-  </si>
-  <si>
-    <t>Cici Zhan</t>
-  </si>
-  <si>
-    <t>portree 72 sink</t>
-  </si>
-  <si>
-    <t>portree 30-48 sink</t>
+    <t>OA13</t>
+  </si>
+  <si>
+    <t>OA6</t>
   </si>
 </sst>
 </file>
@@ -486,7 +465,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -645,10 +624,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -656,16 +635,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -673,121 +652,121 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17">
-        <v>250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -795,118 +774,16 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>123</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>123</v>
-      </c>
-      <c r="D22">
-        <v>123</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -75,24 +75,12 @@
     <t>X001OL66RB</t>
   </si>
   <si>
-    <t>backpackGray</t>
+    <t>SkateboardbackpackBlack</t>
   </si>
   <si>
     <t>Amy Huang</t>
   </si>
   <si>
-    <t>FlapBagG</t>
-  </si>
-  <si>
-    <t>backpackBlack</t>
-  </si>
-  <si>
-    <t>FlapBagB</t>
-  </si>
-  <si>
-    <t>SkateboardbackpackBlack</t>
-  </si>
-  <si>
     <t>backpackwithraincover</t>
   </si>
   <si>
@@ -111,10 +99,43 @@
     <t>OA9</t>
   </si>
   <si>
-    <t>OA13</t>
-  </si>
-  <si>
-    <t>OA6</t>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA6-1</t>
+  </si>
+  <si>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>foaming bottles</t>
+  </si>
+  <si>
+    <t>OA6-2</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>portree 72 sink</t>
+  </si>
+  <si>
+    <t>portree 30-48 sink</t>
   </si>
 </sst>
 </file>
@@ -465,7 +486,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +600,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -624,10 +645,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -635,16 +656,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -652,121 +673,121 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -774,16 +795,118 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -33,10 +33,25 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>zyu1000</t>
-  </si>
-  <si>
-    <t>Sophia Zyu</t>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>Sam Shao</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
+  </si>
+  <si>
+    <t>粗三环</t>
+  </si>
+  <si>
+    <t>BHL001</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -387,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,10 +410,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -426,12 +441,82 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>742271416370</v>
+      </c>
+      <c r="D2">
+        <v>742271416370</v>
       </c>
       <c r="E2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>742271417056</v>
+      </c>
+      <c r="D3">
+        <v>742271417056</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>742271416356</v>
+      </c>
+      <c r="D4">
+        <v>742271416356</v>
+      </c>
+      <c r="E4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -33,25 +33,115 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Chandelier Snak</t>
-  </si>
-  <si>
-    <t>Sam Shao</t>
-  </si>
-  <si>
-    <t>Trampoline Green</t>
-  </si>
-  <si>
-    <t>粗三环</t>
-  </si>
-  <si>
-    <t>BHL001</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>001</t>
+    <t>LJX-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>BL-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>X00155OJ57</t>
+  </si>
+  <si>
+    <t>BL-22D8Y-BOX</t>
+  </si>
+  <si>
+    <t>X001643CZ5</t>
+  </si>
+  <si>
+    <t>BL-22D6WY-BOX</t>
+  </si>
+  <si>
+    <t>X0015BOJMJ</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>jeep grand cherokee cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001OL66RB</t>
+  </si>
+  <si>
+    <t>SkateboardbackpackBlack</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>backpackwithraincover</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA6-1</t>
+  </si>
+  <si>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>foaming bottles</t>
+  </si>
+  <si>
+    <t>OA6-2</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>portree 72 sink</t>
+  </si>
+  <si>
+    <t>portree 30-48 sink</t>
+  </si>
+  <si>
+    <t>annacy 48 door</t>
+  </si>
+  <si>
+    <t>a48d</t>
   </si>
 </sst>
 </file>
@@ -402,7 +492,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,10 +500,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -441,45 +531,45 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>742271416370</v>
-      </c>
-      <c r="D2">
-        <v>742271416370</v>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>742271417056</v>
-      </c>
-      <c r="D3">
-        <v>742271417056</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>742271416356</v>
-      </c>
-      <c r="D4">
-        <v>742271416356</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -487,36 +577,357 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -33,115 +33,34 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>LJX-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>Vee Trading</t>
-  </si>
-  <si>
-    <t>X001W2CU5J</t>
-  </si>
-  <si>
-    <t>BL-22D8WY-BOX</t>
-  </si>
-  <si>
-    <t>X00155OJ57</t>
-  </si>
-  <si>
-    <t>BL-22D8Y-BOX</t>
-  </si>
-  <si>
-    <t>X001643CZ5</t>
-  </si>
-  <si>
-    <t>BL-22D6WY-BOX</t>
-  </si>
-  <si>
-    <t>X0015BOJMJ</t>
-  </si>
-  <si>
-    <t>23D7WB</t>
-  </si>
-  <si>
-    <t>Chevy Equinox cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001QM0TWV</t>
-  </si>
-  <si>
-    <t>jeep grand cherokee cargo cover-BOX</t>
-  </si>
-  <si>
-    <t>X001OL66RB</t>
-  </si>
-  <si>
-    <t>SkateboardbackpackBlack</t>
-  </si>
-  <si>
-    <t>Amy Huang</t>
-  </si>
-  <si>
-    <t>backpackwithraincover</t>
-  </si>
-  <si>
-    <t>OA2</t>
-  </si>
-  <si>
-    <t>Todd Zhou</t>
-  </si>
-  <si>
-    <t>OA3</t>
-  </si>
-  <si>
-    <t>OA4</t>
-  </si>
-  <si>
-    <t>OA9</t>
-  </si>
-  <si>
-    <t>OA13-1</t>
-  </si>
-  <si>
-    <t>OA6-1</t>
-  </si>
-  <si>
-    <t>4891028707844</t>
-  </si>
-  <si>
-    <t>Fancy Lin</t>
-  </si>
-  <si>
-    <t>bag-1</t>
-  </si>
-  <si>
-    <t>4891028707837</t>
-  </si>
-  <si>
-    <t>bag-4</t>
-  </si>
-  <si>
-    <t>foaming bottles</t>
-  </si>
-  <si>
-    <t>OA6-2</t>
-  </si>
-  <si>
-    <t>OA13-2</t>
-  </si>
-  <si>
-    <t>Cici Zhan</t>
-  </si>
-  <si>
-    <t>portree 72 sink</t>
-  </si>
-  <si>
-    <t>portree 30-48 sink</t>
-  </si>
-  <si>
-    <t>annacy 48 door</t>
-  </si>
-  <si>
-    <t>a48d</t>
+    <t>Chandelier Snak</t>
+  </si>
+  <si>
+    <t>Sam Shao</t>
+  </si>
+  <si>
+    <t>742271416370</t>
+  </si>
+  <si>
+    <t>Trampoline Green</t>
+  </si>
+  <si>
+    <t>742271417056</t>
+  </si>
+  <si>
+    <t>粗三环</t>
+  </si>
+  <si>
+    <t>742271416356</t>
+  </si>
+  <si>
+    <t>BHL001</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -492,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,10 +419,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -538,7 +457,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -555,7 +474,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -583,18 +502,18 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -606,328 +525,7 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>123</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22">
-        <v>123</v>
-      </c>
-      <c r="D22">
-        <v>123</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -39,19 +39,10 @@
     <t>Sam Shao</t>
   </si>
   <si>
-    <t>742271416370</t>
-  </si>
-  <si>
     <t>Trampoline Green</t>
   </si>
   <si>
-    <t>742271417056</t>
-  </si>
-  <si>
     <t>粗三环</t>
-  </si>
-  <si>
-    <t>742271416356</t>
   </si>
   <si>
     <t>BHL001</t>
@@ -450,11 +441,11 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="C2">
+        <v>742271416370</v>
+      </c>
+      <c r="D2">
+        <v>742271416370</v>
       </c>
       <c r="E2">
         <v>79</v>
@@ -462,16 +453,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="C3">
+        <v>742271417056</v>
+      </c>
+      <c r="D3">
+        <v>742271417056</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -479,16 +470,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>742271416356</v>
+      </c>
+      <c r="D4">
+        <v>742271416356</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -496,16 +487,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>26</v>
@@ -513,16 +504,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>29</v>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -33,25 +33,22 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Chandelier Snak</t>
+    <t>BHL001</t>
   </si>
   <si>
     <t>Sam Shao</t>
   </si>
   <si>
-    <t>Trampoline Green</t>
-  </si>
-  <si>
-    <t>粗三环</t>
-  </si>
-  <si>
-    <t>BHL001</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>001</t>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>X0028EQBAZ</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>AAA</t>
   </si>
 </sst>
 </file>
@@ -402,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,10 +407,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -441,14 +438,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>742271416370</v>
-      </c>
-      <c r="D2">
-        <v>742271416370</v>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -458,28 +455,28 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>742271417056</v>
-      </c>
-      <c r="D3">
-        <v>742271417056</v>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>742271416356</v>
-      </c>
-      <c r="D4">
-        <v>742271416356</v>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -487,36 +484,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>111</v>
       </c>
       <c r="E5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,235 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>BHL001</t>
-  </si>
-  <si>
-    <t>Sam Shao</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>X0028EQBAZ</t>
-  </si>
-  <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>AAA</t>
+    <t>LJX-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>Vee Trading</t>
+  </si>
+  <si>
+    <t>X001W2CU5J</t>
+  </si>
+  <si>
+    <t>BL-22D8WY-BOX</t>
+  </si>
+  <si>
+    <t>X00155OJ57</t>
+  </si>
+  <si>
+    <t>BL-22D8Y-BOX</t>
+  </si>
+  <si>
+    <t>X001643CZ5</t>
+  </si>
+  <si>
+    <t>BL-22D6WY-BOX</t>
+  </si>
+  <si>
+    <t>X0015BOJMJ</t>
+  </si>
+  <si>
+    <t>23D7WB</t>
+  </si>
+  <si>
+    <t>Chevy Equinox cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001QM0TWV</t>
+  </si>
+  <si>
+    <t>jeep grand cherokee cargo cover-BOX</t>
+  </si>
+  <si>
+    <t>X001OL66RB</t>
+  </si>
+  <si>
+    <t>SkateboardbackpackBlack</t>
+  </si>
+  <si>
+    <t>Amy Huang</t>
+  </si>
+  <si>
+    <t>backpackwithraincover</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>Todd Zhou</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA9</t>
+  </si>
+  <si>
+    <t>OA13-1</t>
+  </si>
+  <si>
+    <t>OA6-1</t>
+  </si>
+  <si>
+    <t>4891028707844</t>
+  </si>
+  <si>
+    <t>Fancy Lin</t>
+  </si>
+  <si>
+    <t>bag-1</t>
+  </si>
+  <si>
+    <t>4891028707837</t>
+  </si>
+  <si>
+    <t>bag-4</t>
+  </si>
+  <si>
+    <t>foaming bottles</t>
+  </si>
+  <si>
+    <t>OA6-2</t>
+  </si>
+  <si>
+    <t>OA13-2</t>
+  </si>
+  <si>
+    <t>Cici Zhan</t>
+  </si>
+  <si>
+    <t>portree 72 sink</t>
+  </si>
+  <si>
+    <t>portree 30-48 sink</t>
+  </si>
+  <si>
+    <t>F150 Floor Mat</t>
+  </si>
+  <si>
+    <t>TTX  Techonology</t>
+  </si>
+  <si>
+    <t>TP111</t>
+  </si>
+  <si>
+    <t>MUSTANG Floor Mat</t>
+  </si>
+  <si>
+    <t>TP107</t>
+  </si>
+  <si>
+    <t>CRV FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP104</t>
+  </si>
+  <si>
+    <t>MERCEDEZ BENZ G63 FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP113</t>
+  </si>
+  <si>
+    <t>CAMRY FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP105</t>
+  </si>
+  <si>
+    <t>CHR FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP108</t>
+  </si>
+  <si>
+    <t>SEAT COVER</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>seat_cover</t>
+  </si>
+  <si>
+    <t>Jeep Cherokee Floor Mat</t>
+  </si>
+  <si>
+    <t>TP110</t>
+  </si>
+  <si>
+    <t>ACCORD FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP103</t>
+  </si>
+  <si>
+    <t>TP115 CIVIC FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP115</t>
+  </si>
+  <si>
+    <t>TOYOTA TUNDRA FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP112</t>
+  </si>
+  <si>
+    <t>JEEP CHEROKEE BLACK SEAT COVER</t>
+  </si>
+  <si>
+    <t>SC-cherokee-B</t>
+  </si>
+  <si>
+    <t>Highlander white seat cover</t>
+  </si>
+  <si>
+    <t>SC-Highlander-W</t>
+  </si>
+  <si>
+    <t>15 CRV BLACK SEAT COVER</t>
+  </si>
+  <si>
+    <t>SC-15crv-B</t>
+  </si>
+  <si>
+    <t>JK 07-13  FLOOR MAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OB5 </t>
+  </si>
+  <si>
+    <t>TP101-3 2ND ROW FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP101-3</t>
+  </si>
+  <si>
+    <t>X-TRAIL TPE FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP116</t>
+  </si>
+  <si>
+    <t>ATIMA FLOOR MAT</t>
+  </si>
+  <si>
+    <t>TP120</t>
+  </si>
+  <si>
+    <t>WRANGLER JL</t>
+  </si>
+  <si>
+    <t>TP109</t>
+  </si>
+  <si>
+    <t>CHR SEAT COVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC-CHR-R  </t>
   </si>
 </sst>
 </file>
@@ -399,7 +612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,10 +620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="28.135986" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="28.135986" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -439,10 +652,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -450,16 +663,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -467,16 +680,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -484,18 +697,715 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>111</v>
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>123</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46">
         <v>0</v>
       </c>
     </row>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -36,7 +36,7 @@
     <t>LJX-22D8WY-BOX</t>
   </si>
   <si>
-    <t>Vee Trading</t>
+    <t>Newman Trading</t>
   </si>
   <si>
     <t>X001W2CU5J</t>

--- a/admin/assets/file/export/product.xlsx
+++ b/admin/assets/file/export/product.xlsx
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:5">
